--- a/gu_in/Map.edf/neutralC.xlsx
+++ b/gu_in/Map.edf/neutralC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project RF X\Parser_Public_Releases\Parser_1.0.2\database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E278348-C483-4261-991B-8D6FB6CD0D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDE060-89C5-4C5F-8D0B-CBD75E646C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -42795,8 +42795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46684,7 +46684,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="M212" sqref="M212"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -50752,13 +50754,13 @@
         <v>44</v>
       </c>
       <c r="C157" s="1">
-        <v>7134</v>
+        <v>7406</v>
       </c>
       <c r="D157" s="1">
-        <v>-145</v>
+        <v>-157</v>
       </c>
       <c r="E157" s="1">
-        <v>552</v>
+        <v>1329</v>
       </c>
       <c r="F157" s="1">
         <v>20</v>
@@ -51376,13 +51378,13 @@
         <v>0</v>
       </c>
       <c r="C181" s="1">
-        <v>6986</v>
+        <v>6977</v>
       </c>
       <c r="D181" s="1">
-        <v>-157</v>
+        <v>-147</v>
       </c>
       <c r="E181" s="1">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F181" s="1">
         <v>40</v>
@@ -52023,16 +52025,16 @@
         <v>1449</v>
       </c>
       <c r="B206" s="1">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C206" s="1">
-        <v>8078</v>
+        <v>7132</v>
       </c>
       <c r="D206" s="1">
-        <v>-134</v>
+        <v>-147</v>
       </c>
       <c r="E206" s="1">
-        <v>482</v>
+        <v>548</v>
       </c>
       <c r="F206" s="1">
         <v>20</v>
@@ -52049,16 +52051,16 @@
         <v>1450</v>
       </c>
       <c r="B207" s="1">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="C207" s="1">
-        <v>8080</v>
+        <v>8078</v>
       </c>
       <c r="D207" s="1">
-        <v>-143</v>
+        <v>-134</v>
       </c>
       <c r="E207" s="1">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F207" s="1">
         <v>20</v>

--- a/gu_in/Map.edf/neutralC.xlsx
+++ b/gu_in/Map.edf/neutralC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project RF X\Parser_Public_Releases\Parser_1.0.2\database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDE060-89C5-4C5F-8D0B-CBD75E646C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E278348-C483-4261-991B-8D6FB6CD0D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -42795,8 +42795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46684,9 +46684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="M212" sqref="M212"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -50754,13 +50752,13 @@
         <v>44</v>
       </c>
       <c r="C157" s="1">
-        <v>7406</v>
+        <v>7134</v>
       </c>
       <c r="D157" s="1">
-        <v>-157</v>
+        <v>-145</v>
       </c>
       <c r="E157" s="1">
-        <v>1329</v>
+        <v>552</v>
       </c>
       <c r="F157" s="1">
         <v>20</v>
@@ -51378,13 +51376,13 @@
         <v>0</v>
       </c>
       <c r="C181" s="1">
-        <v>6977</v>
+        <v>6986</v>
       </c>
       <c r="D181" s="1">
-        <v>-147</v>
+        <v>-157</v>
       </c>
       <c r="E181" s="1">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F181" s="1">
         <v>40</v>
@@ -52025,16 +52023,16 @@
         <v>1449</v>
       </c>
       <c r="B206" s="1">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="C206" s="1">
-        <v>7132</v>
+        <v>8078</v>
       </c>
       <c r="D206" s="1">
-        <v>-147</v>
+        <v>-134</v>
       </c>
       <c r="E206" s="1">
-        <v>548</v>
+        <v>482</v>
       </c>
       <c r="F206" s="1">
         <v>20</v>
@@ -52051,16 +52049,16 @@
         <v>1450</v>
       </c>
       <c r="B207" s="1">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="C207" s="1">
-        <v>8078</v>
+        <v>8080</v>
       </c>
       <c r="D207" s="1">
-        <v>-134</v>
+        <v>-143</v>
       </c>
       <c r="E207" s="1">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F207" s="1">
         <v>20</v>

--- a/gu_in/Map.edf/neutralC.xlsx
+++ b/gu_in/Map.edf/neutralC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project RF X\Parser_Public_Releases\Parser_1.0.2\database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EDE060-89C5-4C5F-8D0B-CBD75E646C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0928F7-3319-4558-A7E2-903987C2DCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46685,7 +46685,7 @@
   <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="M212" sqref="M212"/>
+      <selection activeCell="K202" sqref="K202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51875,7 +51875,7 @@
         <v>8077</v>
       </c>
       <c r="D200" s="1">
-        <v>-140</v>
+        <v>140</v>
       </c>
       <c r="E200" s="1">
         <v>599</v>
@@ -51901,7 +51901,7 @@
         <v>8077</v>
       </c>
       <c r="D201" s="1">
-        <v>-139</v>
+        <v>139</v>
       </c>
       <c r="E201" s="1">
         <v>599</v>

--- a/gu_in/Map.edf/neutralC.xlsx
+++ b/gu_in/Map.edf/neutralC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89578D79-7852-4ABB-A14F-7DFDCE43ACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFD1FD-E9C7-4E4A-A36C-604D8DD2C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46695,11 +46695,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="L155" sqref="L155"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -49312,7 +49317,7 @@
         <v>7318</v>
       </c>
       <c r="D101" s="1">
-        <v>-250</v>
+        <v>-200250</v>
       </c>
       <c r="E101" s="1">
         <v>-1192</v>
@@ -49705,7 +49710,7 @@
         <v>-138</v>
       </c>
       <c r="E116" s="1">
-        <v>590</v>
+        <v>200590</v>
       </c>
       <c r="F116" s="1">
         <v>20</v>
@@ -49731,7 +49736,7 @@
         <v>-140</v>
       </c>
       <c r="E117" s="1">
-        <v>540</v>
+        <v>200540</v>
       </c>
       <c r="F117" s="1">
         <v>60</v>
@@ -49809,7 +49814,7 @@
         <v>-136</v>
       </c>
       <c r="E120" s="1">
-        <v>469</v>
+        <v>200469</v>
       </c>
       <c r="F120" s="1">
         <v>20</v>
@@ -49835,7 +49840,7 @@
         <v>-142</v>
       </c>
       <c r="E121" s="1">
-        <v>542</v>
+        <v>200542</v>
       </c>
       <c r="F121" s="1">
         <v>60</v>
@@ -49861,7 +49866,7 @@
         <v>-136</v>
       </c>
       <c r="E122" s="1">
-        <v>491</v>
+        <v>200491</v>
       </c>
       <c r="F122" s="1">
         <v>20</v>
@@ -49887,7 +49892,7 @@
         <v>-142</v>
       </c>
       <c r="E123" s="1">
-        <v>541</v>
+        <v>200541</v>
       </c>
       <c r="F123" s="1">
         <v>170</v>
@@ -50326,7 +50331,7 @@
         <v>7780</v>
       </c>
       <c r="D140" s="1">
-        <v>-270</v>
+        <v>-200270</v>
       </c>
       <c r="E140" s="1">
         <v>-1759</v>
@@ -50352,7 +50357,7 @@
         <v>7782</v>
       </c>
       <c r="D141" s="1">
-        <v>-266</v>
+        <v>-200266</v>
       </c>
       <c r="E141" s="1">
         <v>-1691</v>
@@ -50820,7 +50825,7 @@
         <v>7958</v>
       </c>
       <c r="D159" s="1">
-        <v>-172</v>
+        <v>-200172</v>
       </c>
       <c r="E159" s="1">
         <v>-135</v>
@@ -50846,7 +50851,7 @@
         <v>7956</v>
       </c>
       <c r="D160" s="1">
-        <v>-167</v>
+        <v>-200167</v>
       </c>
       <c r="E160" s="1">
         <v>-132</v>

--- a/gu_in/Map.edf/neutralC.xlsx
+++ b/gu_in/Map.edf/neutralC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\nexus-database-ce93b66d87acc5fafdd6979075eb27090fe3427e\nexus-database-ce93b66d87acc5fafdd6979075eb27090fe3427e\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFD1FD-E9C7-4E4A-A36C-604D8DD2C89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4AE4EA-A078-484C-BE9D-A55305992469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="18480" windowHeight="11205" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -46695,14 +46695,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D143" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49710,7 +49708,7 @@
         <v>-138</v>
       </c>
       <c r="E116" s="1">
-        <v>200590</v>
+        <v>590</v>
       </c>
       <c r="F116" s="1">
         <v>20</v>
@@ -49736,7 +49734,7 @@
         <v>-140</v>
       </c>
       <c r="E117" s="1">
-        <v>200540</v>
+        <v>540</v>
       </c>
       <c r="F117" s="1">
         <v>60</v>
@@ -49814,7 +49812,7 @@
         <v>-136</v>
       </c>
       <c r="E120" s="1">
-        <v>200469</v>
+        <v>469</v>
       </c>
       <c r="F120" s="1">
         <v>20</v>
@@ -49840,7 +49838,7 @@
         <v>-142</v>
       </c>
       <c r="E121" s="1">
-        <v>200542</v>
+        <v>542</v>
       </c>
       <c r="F121" s="1">
         <v>60</v>
@@ -49866,7 +49864,7 @@
         <v>-136</v>
       </c>
       <c r="E122" s="1">
-        <v>200491</v>
+        <v>491</v>
       </c>
       <c r="F122" s="1">
         <v>20</v>
@@ -49892,7 +49890,7 @@
         <v>-142</v>
       </c>
       <c r="E123" s="1">
-        <v>200541</v>
+        <v>541</v>
       </c>
       <c r="F123" s="1">
         <v>170</v>

--- a/gu_in/Map.edf/neutralC.xlsx
+++ b/gu_in/Map.edf/neutralC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\nexus-database-ce93b66d87acc5fafdd6979075eb27090fe3427e\nexus-database-ce93b66d87acc5fafdd6979075eb27090fe3427e\gu_in\Map.edf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4AE4EA-A078-484C-BE9D-A55305992469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E9D70B-7C12-4AC9-848F-5925E6B77079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="18480" windowHeight="11205" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="18480" windowHeight="11205" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -46695,8 +46695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="D143" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49705,7 +49705,7 @@
         <v>8162</v>
       </c>
       <c r="D116" s="1">
-        <v>-138</v>
+        <v>-200138</v>
       </c>
       <c r="E116" s="1">
         <v>590</v>
@@ -49731,7 +49731,7 @@
         <v>8077</v>
       </c>
       <c r="D117" s="1">
-        <v>-140</v>
+        <v>-200140</v>
       </c>
       <c r="E117" s="1">
         <v>540</v>
@@ -49809,7 +49809,7 @@
         <v>8135</v>
       </c>
       <c r="D120" s="1">
-        <v>-136</v>
+        <v>-200136</v>
       </c>
       <c r="E120" s="1">
         <v>469</v>
@@ -49835,7 +49835,7 @@
         <v>8080</v>
       </c>
       <c r="D121" s="1">
-        <v>-142</v>
+        <v>-200142</v>
       </c>
       <c r="E121" s="1">
         <v>542</v>
@@ -49861,7 +49861,7 @@
         <v>8161</v>
       </c>
       <c r="D122" s="1">
-        <v>-136</v>
+        <v>-200136</v>
       </c>
       <c r="E122" s="1">
         <v>491</v>
@@ -49887,7 +49887,7 @@
         <v>8080</v>
       </c>
       <c r="D123" s="1">
-        <v>-142</v>
+        <v>-200142</v>
       </c>
       <c r="E123" s="1">
         <v>541</v>

--- a/gu_in/Map.edf/neutralC.xlsx
+++ b/gu_in/Map.edf/neutralC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E9D70B-7C12-4AC9-848F-5925E6B77079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FED2C9-658D-473D-A17E-2ABF78570553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="18480" windowHeight="11205" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -46695,8 +46695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50823,7 +50823,7 @@
         <v>7958</v>
       </c>
       <c r="D159" s="1">
-        <v>-200172</v>
+        <v>-172</v>
       </c>
       <c r="E159" s="1">
         <v>-135</v>
@@ -50849,7 +50849,7 @@
         <v>7956</v>
       </c>
       <c r="D160" s="1">
-        <v>-200167</v>
+        <v>-167</v>
       </c>
       <c r="E160" s="1">
         <v>-132</v>

--- a/gu_in/Map.edf/neutralC.xlsx
+++ b/gu_in/Map.edf/neutralC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FED2C9-658D-473D-A17E-2ABF78570553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C34E0D9-9134-4654-8F29-A6D2B0DC7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="18480" windowHeight="11205" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="1487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="1489">
   <si>
     <t>char[32]</t>
   </si>
@@ -4499,15 +4499,25 @@
   </si>
   <si>
     <t>Fog Marsh</t>
+  </si>
+  <si>
+    <t>sd131B2</t>
+  </si>
+  <si>
+    <t>bd131B2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -46693,10 +46703,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52242,7 +52252,60 @@
         <v>20</v>
       </c>
     </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B214" s="1">
+        <v>104</v>
+      </c>
+      <c r="C214" s="1">
+        <v>7201</v>
+      </c>
+      <c r="D214" s="1">
+        <v>-157</v>
+      </c>
+      <c r="E214" s="1">
+        <v>456</v>
+      </c>
+      <c r="F214" s="1">
+        <v>20</v>
+      </c>
+      <c r="G214" s="1">
+        <v>20</v>
+      </c>
+      <c r="H214" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B215" s="1">
+        <v>106</v>
+      </c>
+      <c r="C215" s="1">
+        <v>7201</v>
+      </c>
+      <c r="D215" s="1">
+        <v>-157</v>
+      </c>
+      <c r="E215" s="1">
+        <v>456</v>
+      </c>
+      <c r="F215" s="1">
+        <v>20</v>
+      </c>
+      <c r="G215" s="1">
+        <v>20</v>
+      </c>
+      <c r="H215" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/gu_in/Map.edf/neutralC.xlsx
+++ b/gu_in/Map.edf/neutralC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\emay.dev\Parser_1.0.2\Database\gu_in\Map.edf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C34E0D9-9134-4654-8F29-A6D2B0DC7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B317062-7340-47B3-9F3F-C65E1AC7407C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="18480" windowHeight="11205" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5505" yWindow="1350" windowWidth="18480" windowHeight="11205" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -46705,8 +46705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214:E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52260,13 +52260,13 @@
         <v>104</v>
       </c>
       <c r="C214" s="1">
-        <v>7201</v>
+        <v>7101</v>
       </c>
       <c r="D214" s="1">
-        <v>-157</v>
+        <v>-149</v>
       </c>
       <c r="E214" s="1">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="F214" s="1">
         <v>20</v>
@@ -52286,13 +52286,13 @@
         <v>106</v>
       </c>
       <c r="C215" s="1">
-        <v>7201</v>
+        <v>7101</v>
       </c>
       <c r="D215" s="1">
-        <v>-157</v>
+        <v>-149</v>
       </c>
       <c r="E215" s="1">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="F215" s="1">
         <v>20</v>
